--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>608192.0297613981</v>
+        <v>537498.3430897852</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409203.1627948473</v>
+        <v>409203.1627948469</v>
       </c>
     </row>
     <row r="8">
@@ -661,73 +661,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>274.2838073416025</v>
+      </c>
+      <c r="G2" t="n">
+        <v>274.2838073416025</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.5891775064833</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="W2" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>100.0323886292445</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>240.5305456105214</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.5891775064833</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.06891600204318</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>224.6571770672012</v>
@@ -1037,13 +1037,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="7">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.15457984420474</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>99.15242676576018</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>240.9299003719209</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>87.68355978354153</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>9.917482982406726</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>69.92076221648078</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
@@ -1280,7 +1280,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>204.6406642352935</v>
+        <v>353.3606744918859</v>
       </c>
       <c r="F11" t="n">
-        <v>353.3606744918854</v>
+        <v>353.3606744918859</v>
       </c>
       <c r="G11" t="n">
-        <v>353.3606744918854</v>
+        <v>353.3606744918859</v>
       </c>
       <c r="H11" t="n">
-        <v>335.3354348149114</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>124.6246575341333</v>
+        <v>124.6246575341332</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>186.6154245583197</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>133.2558565299378</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>137.8163645760925</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.791120992435</v>
       </c>
       <c r="U12" t="n">
         <v>224.6475240054629</v>
@@ -1511,13 +1511,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.59446976968372</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>220.2136676703322</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>265.8081374400164</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>39.18546277216909</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>55.97983816907735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>285.5880954821185</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1694,7 +1694,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>156.033433707174</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -1706,7 +1706,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I15" t="n">
-        <v>61.32090000246038</v>
+        <v>61.32090000246102</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613732</v>
       </c>
       <c r="S15" t="n">
         <v>155.3758183558542</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>156.2023993565976</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.48578169199548</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.41377105177701</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>95.31032463304045</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>338.2689278470558</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H17" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.714014505568</v>
@@ -1900,7 +1900,7 @@
         <v>216.980993107702</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -1909,7 +1909,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>328.5334011733429</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H18" t="n">
-        <v>103.3985434322537</v>
+        <v>103.3985434322543</v>
       </c>
       <c r="I18" t="n">
-        <v>61.32090000246038</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S18" t="n">
         <v>155.3758183558542</v>
@@ -1988,7 +1988,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084784</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>67.83357354674523</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.457686167398776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>77.42231264380436</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.980993107702</v>
+        <v>99.47224256745008</v>
       </c>
       <c r="U20" t="n">
         <v>251.3684020854885</v>
@@ -2143,10 +2143,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -2180,7 +2180,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I21" t="n">
-        <v>61.32090000246058</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613777</v>
       </c>
       <c r="S21" t="n">
         <v>155.3758183558542</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>230.0382375678738</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>188.3450137759191</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>116.9564456535128</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I23" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>55.97983816907737</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>156.6967749478003</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I24" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246101</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>64.98702844203036</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>188.7729333976798</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>137.4020369803987</v>
       </c>
       <c r="G26" t="n">
         <v>413.4877467656314</v>
@@ -2575,7 +2575,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I26" t="n">
-        <v>77.06086531588026</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I27" t="n">
-        <v>61.32090000246058</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>68.23319818771004</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.41377105177699</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>21.26502641783747</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.114757525993836</v>
+        <v>129.7667678590408</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>216.980993107702</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.28281404613777</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S30" t="n">
         <v>155.3758183558542</v>
       </c>
       <c r="T30" t="n">
-        <v>195.4343982340639</v>
+        <v>195.4343982340645</v>
       </c>
       <c r="U30" t="n">
         <v>224.6090573663165</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.6904612099073</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.7124403105487</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>21.4363804664774</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U32" t="n">
         <v>251.3684020854885</v>
@@ -3094,10 +3094,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>231.9414153554829</v>
+        <v>235.4060388722946</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I33" t="n">
-        <v>61.32090000246101</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>38.73289760614554</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.48578169199547</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.3927968208128</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H35" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.21275453936002</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U35" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>34.0122566984338</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -3365,7 +3365,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I36" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246101</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>119.5837929021961</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.41377105177699</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>55.80490824636399</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2241112159871363</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -3520,10 +3520,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I38" t="n">
-        <v>152.5223218189376</v>
+        <v>41.17394075700692</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>55.97983816907737</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T38" t="n">
         <v>216.980993107702</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>35.61060389385541</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.48578169199547</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.3927968208128</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>136.658421725806</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.4877467656314</v>
@@ -3760,7 +3760,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I41" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>135.7006854956411</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>85.3489572000335</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.41377105177699</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.3591623459027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4877467656314</v>
+        <v>229.5890925276192</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I44" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>216.980993107702</v>
       </c>
       <c r="U44" t="n">
-        <v>223.5210020693961</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I45" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246102</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613732</v>
       </c>
       <c r="S45" t="n">
         <v>155.3758183558542</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>88.19550230474833</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>27.62102511570481</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>543.0265276662028</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="C2" t="n">
-        <v>265.9721768160992</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E2" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F2" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G2" t="n">
         <v>21.9427045873282</v>
@@ -4336,19 +4336,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P2" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q2" t="n">
         <v>1097.13522936641</v>
@@ -4366,16 +4366,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>820.0808785163065</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W2" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X2" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y2" t="n">
-        <v>543.0265276662028</v>
+        <v>853.1057571376389</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>443.3269431037838</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C3" t="n">
-        <v>270.573828025601</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D3" t="n">
-        <v>122.9855213845449</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E3" t="n">
-        <v>122.9855213845449</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F3" t="n">
         <v>21.9427045873282</v>
@@ -4409,22 +4409,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>270.0203090292462</v>
+        <v>204.9955038364183</v>
       </c>
       <c r="M3" t="n">
-        <v>277.9660032696081</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N3" t="n">
-        <v>549.5069725377946</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O3" t="n">
-        <v>817.3865915151152</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P3" t="n">
         <v>1015.957061350112</v>
@@ -4436,25 +4436,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="V3" t="n">
-        <v>862.883985892011</v>
+        <v>264.902851668663</v>
       </c>
       <c r="W3" t="n">
-        <v>610.3694942253443</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X3" t="n">
-        <v>610.3694942253443</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y3" t="n">
-        <v>610.3694942253443</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>36.86635076695785</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
         <v>108.7246574309869</v>
@@ -4509,31 +4509,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>126.6025577647144</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="C5" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="D5" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="E5" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F5" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G5" t="n">
         <v>21.9427045873282</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W5" t="n">
-        <v>820.0808785163064</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X5" t="n">
-        <v>543.0265276662028</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="Y5" t="n">
-        <v>265.9721768160992</v>
+        <v>953.8515700725947</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>21.9427045873282</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>21.9427045873282</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M6" t="n">
         <v>277.9660032696079</v>
@@ -4673,25 +4673,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T6" t="n">
-        <v>726.0805366250836</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>499.1540951430621</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V6" t="n">
-        <v>264.902851668663</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W6" t="n">
-        <v>264.902851668663</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X6" t="n">
-        <v>58.3759530742405</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.3759530742405</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>47.35137109662591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
         <v>21.9427045873282</v>
@@ -4746,31 +4746,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.60864108688619</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="C8" t="n">
-        <v>22.60864108688619</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="D8" t="n">
-        <v>22.60864108688619</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="E8" t="n">
-        <v>22.60864108688619</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="F8" t="n">
-        <v>22.60864108688619</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="G8" t="n">
-        <v>22.60864108688619</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H8" t="n">
-        <v>22.60864108688619</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I8" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4813,13 +4813,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M8" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
         <v>1093.116282134284</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>1008.565977059802</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>1008.565977059802</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>783.348686962408</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>783.348686962408</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.13522936641</v>
+        <v>783.348686962408</v>
       </c>
       <c r="W8" t="n">
-        <v>820.0808785163064</v>
+        <v>783.348686962408</v>
       </c>
       <c r="X8" t="n">
-        <v>543.0265276662028</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="Y8" t="n">
-        <v>265.9721768160992</v>
+        <v>506.2943361123045</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.695819665511</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9427045873282</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9427045873282</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="E9" t="n">
-        <v>21.9427045873282</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F9" t="n">
         <v>21.9427045873282</v>
@@ -4883,25 +4883,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>204.9955038364183</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>476.5364731046047</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N9" t="n">
-        <v>748.0774423727912</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O9" t="n">
-        <v>1015.957061350112</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
@@ -4913,22 +4913,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>1097.13522936641</v>
+        <v>1087.117569788221</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>860.1911283061997</v>
       </c>
       <c r="V9" t="n">
-        <v>1026.50819682451</v>
+        <v>625.9398848318006</v>
       </c>
       <c r="W9" t="n">
-        <v>773.9937051578435</v>
+        <v>373.4253931651339</v>
       </c>
       <c r="X9" t="n">
-        <v>567.466806563421</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="Y9" t="n">
-        <v>361.7383707870715</v>
+        <v>166.8984945707113</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -5001,13 +5001,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1287.559205508821</v>
+        <v>1099.058776662036</v>
       </c>
       <c r="C11" t="n">
-        <v>1287.559205508821</v>
+        <v>1099.058776662036</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.559205508821</v>
+        <v>1099.058776662036</v>
       </c>
       <c r="E11" t="n">
-        <v>1080.85146385701</v>
+        <v>742.1288024278073</v>
       </c>
       <c r="F11" t="n">
-        <v>723.921489622782</v>
+        <v>385.1988281935791</v>
       </c>
       <c r="G11" t="n">
-        <v>366.9915153885543</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="H11" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="I11" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="J11" t="n">
         <v>50.65843562542932</v>
@@ -5047,46 +5047,46 @@
         <v>206.4912073741732</v>
       </c>
       <c r="L11" t="n">
-        <v>451.7846185279092</v>
+        <v>451.7846185279096</v>
       </c>
       <c r="M11" t="n">
-        <v>739.9330952748869</v>
+        <v>739.9330952748877</v>
       </c>
       <c r="N11" t="n">
-        <v>1017.226940633319</v>
+        <v>1017.22694063332</v>
       </c>
       <c r="O11" t="n">
-        <v>1232.939304314793</v>
+        <v>1232.939304314795</v>
       </c>
       <c r="P11" t="n">
-        <v>1380.106022867011</v>
+        <v>1380.106022867013</v>
       </c>
       <c r="Q11" t="n">
-        <v>1413.442697967542</v>
+        <v>1413.442697967544</v>
       </c>
       <c r="R11" t="n">
-        <v>1287.559205508821</v>
+        <v>1287.559205508823</v>
       </c>
       <c r="S11" t="n">
-        <v>1287.559205508821</v>
+        <v>1287.559205508823</v>
       </c>
       <c r="T11" t="n">
-        <v>1287.559205508821</v>
+        <v>1099.058776662036</v>
       </c>
       <c r="U11" t="n">
-        <v>1287.559205508821</v>
+        <v>1099.058776662036</v>
       </c>
       <c r="V11" t="n">
-        <v>1287.559205508821</v>
+        <v>1099.058776662036</v>
       </c>
       <c r="W11" t="n">
-        <v>1287.559205508821</v>
+        <v>1099.058776662036</v>
       </c>
       <c r="X11" t="n">
-        <v>1287.559205508821</v>
+        <v>1099.058776662036</v>
       </c>
       <c r="Y11" t="n">
-        <v>1287.559205508821</v>
+        <v>1099.058776662036</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>493.2333733174444</v>
+        <v>201.0219690375337</v>
       </c>
       <c r="C12" t="n">
-        <v>320.4802582392616</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="D12" t="n">
-        <v>320.4802582392616</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="E12" t="n">
-        <v>162.8707292421163</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="F12" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="G12" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="H12" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="I12" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="J12" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="K12" t="n">
-        <v>28.26885395935084</v>
+        <v>190.9670001027748</v>
       </c>
       <c r="L12" t="n">
-        <v>307.8861966106947</v>
+        <v>470.5843427541188</v>
       </c>
       <c r="M12" t="n">
-        <v>657.7132643576613</v>
+        <v>661.4547481962768</v>
       </c>
       <c r="N12" t="n">
-        <v>1007.540332104628</v>
+        <v>1011.281815943244</v>
       </c>
       <c r="O12" t="n">
-        <v>1309.980827329736</v>
+        <v>1313.722311168352</v>
       </c>
       <c r="P12" t="n">
-        <v>1413.442697967542</v>
+        <v>1313.722311168352</v>
       </c>
       <c r="Q12" t="n">
-        <v>1413.442697967542</v>
+        <v>1413.442697967544</v>
       </c>
       <c r="R12" t="n">
-        <v>1413.442697967542</v>
+        <v>1413.442697967544</v>
       </c>
       <c r="S12" t="n">
-        <v>1413.442697967542</v>
+        <v>1274.234248900784</v>
       </c>
       <c r="T12" t="n">
-        <v>1413.442697967542</v>
+        <v>1074.445237797314</v>
       </c>
       <c r="U12" t="n">
-        <v>1186.526007052933</v>
+        <v>847.5285468827049</v>
       </c>
       <c r="V12" t="n">
-        <v>952.2747635785336</v>
+        <v>613.2773034083057</v>
       </c>
       <c r="W12" t="n">
-        <v>699.7602719118669</v>
+        <v>613.2773034083057</v>
       </c>
       <c r="X12" t="n">
-        <v>493.2333733174444</v>
+        <v>406.7504048138832</v>
       </c>
       <c r="Y12" t="n">
-        <v>493.2333733174444</v>
+        <v>201.0219690375337</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="C13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="D13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="E13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="F13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="G13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="H13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="I13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="J13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="K13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="L13" t="n">
-        <v>83.4608111974036</v>
+        <v>83.46081119740374</v>
       </c>
       <c r="M13" t="n">
-        <v>152.2458912438725</v>
+        <v>152.2458912438728</v>
       </c>
       <c r="N13" t="n">
-        <v>224.5366777238904</v>
+        <v>224.5366777238907</v>
       </c>
       <c r="O13" t="n">
-        <v>275.9723230856086</v>
+        <v>275.972323085609</v>
       </c>
       <c r="P13" t="n">
-        <v>296.761922080579</v>
+        <v>296.7619220805796</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.761922080579</v>
+        <v>296.7619220805796</v>
       </c>
       <c r="R13" t="n">
-        <v>250.7069021112015</v>
+        <v>296.7619220805796</v>
       </c>
       <c r="S13" t="n">
-        <v>28.26885395935084</v>
+        <v>296.7619220805796</v>
       </c>
       <c r="T13" t="n">
-        <v>28.26885395935084</v>
+        <v>296.7619220805796</v>
       </c>
       <c r="U13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="V13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="W13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="X13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.26885395935084</v>
+        <v>28.26885395935087</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2000.490171659937</v>
+        <v>838.1948775816468</v>
       </c>
       <c r="C14" t="n">
-        <v>1629.798155822622</v>
+        <v>838.1948775816468</v>
       </c>
       <c r="D14" t="n">
-        <v>1269.591355060401</v>
+        <v>838.1948775816468</v>
       </c>
       <c r="E14" t="n">
-        <v>882.6034401560701</v>
+        <v>838.1948775816468</v>
       </c>
       <c r="F14" t="n">
-        <v>471.1954972464328</v>
+        <v>838.1948775816468</v>
       </c>
       <c r="G14" t="n">
-        <v>53.53110657407781</v>
+        <v>420.5304869092918</v>
       </c>
       <c r="H14" t="n">
-        <v>53.53110657407781</v>
+        <v>93.11238210152135</v>
       </c>
       <c r="I14" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J14" t="n">
         <v>167.7421803733075</v>
@@ -5284,7 +5284,7 @@
         <v>461.191566563293</v>
       </c>
       <c r="L14" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M14" t="n">
         <v>1355.324135626645</v>
@@ -5296,34 +5296,34 @@
         <v>2223.65047400805</v>
       </c>
       <c r="P14" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q14" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R14" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S14" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T14" t="n">
-        <v>2676.555328703891</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="U14" t="n">
-        <v>2676.555328703891</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V14" t="n">
-        <v>2676.555328703891</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="W14" t="n">
-        <v>2676.555328703891</v>
+        <v>1616.380212675213</v>
       </c>
       <c r="X14" t="n">
-        <v>2388.082504984579</v>
+        <v>1616.380212675213</v>
       </c>
       <c r="Y14" t="n">
-        <v>2388.082504984579</v>
+        <v>1225.787210906288</v>
       </c>
     </row>
     <row r="15">
@@ -5333,70 +5333,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C15" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D15" t="n">
-        <v>659.1380762478473</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E15" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F15" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G15" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H15" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I15" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J15" t="n">
-        <v>129.3364848865957</v>
+        <v>129.3364848865958</v>
       </c>
       <c r="K15" t="n">
-        <v>239.7918714752596</v>
+        <v>385.5055637579837</v>
       </c>
       <c r="L15" t="n">
-        <v>645.0924182088986</v>
+        <v>790.8061104916228</v>
       </c>
       <c r="M15" t="n">
-        <v>1170.859233530005</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N15" t="n">
-        <v>1725.940263988108</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O15" t="n">
-        <v>2166.102944282447</v>
+        <v>2311.816636565171</v>
       </c>
       <c r="P15" t="n">
-        <v>2502.945759567337</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q15" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R15" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S15" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T15" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U15" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V15" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W15" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X15" t="n">
         <v>1352.250484864996</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>551.7012029919138</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C16" t="n">
-        <v>551.7012029919138</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D16" t="n">
-        <v>551.7012029919138</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E16" t="n">
-        <v>551.7012029919138</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F16" t="n">
-        <v>551.7012029919138</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G16" t="n">
-        <v>393.9210016216131</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H16" t="n">
-        <v>236.1612149716819</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I16" t="n">
-        <v>99.47634060639649</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K16" t="n">
         <v>109.4344173802943</v>
       </c>
       <c r="L16" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M16" t="n">
         <v>381.630737830651</v>
       </c>
       <c r="N16" t="n">
-        <v>528.1833689256791</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O16" t="n">
-        <v>648.2118474172127</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P16" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.993686092654</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R16" t="n">
-        <v>551.7012029919138</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S16" t="n">
-        <v>551.7012029919138</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T16" t="n">
-        <v>551.7012029919138</v>
+        <v>631.4214097479436</v>
       </c>
       <c r="U16" t="n">
-        <v>551.7012029919138</v>
+        <v>342.5135074704572</v>
       </c>
       <c r="V16" t="n">
-        <v>551.7012029919138</v>
+        <v>342.5135074704572</v>
       </c>
       <c r="W16" t="n">
-        <v>551.7012029919138</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="X16" t="n">
-        <v>551.7012029919138</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y16" t="n">
-        <v>551.7012029919138</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>952.6765533864634</v>
+        <v>1594.981241697483</v>
       </c>
       <c r="C17" t="n">
-        <v>952.6765533864634</v>
+        <v>1224.289225860167</v>
       </c>
       <c r="D17" t="n">
-        <v>952.6765533864634</v>
+        <v>1224.289225860167</v>
       </c>
       <c r="E17" t="n">
-        <v>952.6765533864634</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F17" t="n">
-        <v>952.6765533864634</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G17" t="n">
-        <v>535.0121627141084</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H17" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I17" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J17" t="n">
         <v>167.7421803733077</v>
       </c>
       <c r="K17" t="n">
-        <v>461.191566563293</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L17" t="n">
-        <v>877.2105568248484</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M17" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N17" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O17" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P17" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q17" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R17" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S17" t="n">
-        <v>2443.531235093138</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.358514782327</v>
+        <v>2280.903805862204</v>
       </c>
       <c r="U17" t="n">
-        <v>1970.451037928299</v>
+        <v>2280.903805862204</v>
       </c>
       <c r="V17" t="n">
-        <v>1638.599299016663</v>
+        <v>1949.052066950568</v>
       </c>
       <c r="W17" t="n">
-        <v>1284.528473763577</v>
+        <v>1594.981241697483</v>
       </c>
       <c r="X17" t="n">
-        <v>952.6765533864634</v>
+        <v>1594.981241697483</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.6765533864634</v>
+        <v>1594.981241697483</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C18" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D18" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E18" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F18" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G18" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H18" t="n">
         <v>115.4714096068661</v>
       </c>
       <c r="I18" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J18" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K18" t="n">
-        <v>309.7001854454656</v>
+        <v>309.7001854454658</v>
       </c>
       <c r="L18" t="n">
-        <v>715.0007321791047</v>
+        <v>715.0007321791048</v>
       </c>
       <c r="M18" t="n">
         <v>1240.767547500212</v>
@@ -5609,37 +5609,37 @@
         <v>1795.848577958314</v>
       </c>
       <c r="O18" t="n">
-        <v>2236.011258252653</v>
+        <v>2236.011258252654</v>
       </c>
       <c r="P18" t="n">
-        <v>2572.854073537543</v>
+        <v>2572.854073537544</v>
       </c>
       <c r="Q18" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R18" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S18" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T18" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U18" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V18" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W18" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X18" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>201.1664817354965</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="C19" t="n">
-        <v>201.1664817354965</v>
+        <v>269.685242893825</v>
       </c>
       <c r="D19" t="n">
-        <v>201.1664817354965</v>
+        <v>269.685242893825</v>
       </c>
       <c r="E19" t="n">
-        <v>201.1664817354965</v>
+        <v>269.685242893825</v>
       </c>
       <c r="F19" t="n">
-        <v>53.53110657407781</v>
+        <v>122.0498677324063</v>
       </c>
       <c r="G19" t="n">
-        <v>53.53110657407781</v>
+        <v>122.0498677324063</v>
       </c>
       <c r="H19" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I19" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J19" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K19" t="n">
         <v>109.4344173802943</v>
       </c>
       <c r="L19" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M19" t="n">
         <v>381.630737830651</v>
       </c>
       <c r="N19" t="n">
-        <v>528.1833689256791</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O19" t="n">
-        <v>648.2118474172127</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P19" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q19" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R19" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S19" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T19" t="n">
-        <v>499.7021009827837</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U19" t="n">
-        <v>499.7021009827837</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V19" t="n">
-        <v>499.7021009827837</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W19" t="n">
-        <v>210.7197000864044</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="X19" t="n">
-        <v>210.7197000864044</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.1664817354965</v>
+        <v>438.7120640364536</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>131.7354627799408</v>
+        <v>1212.133765150267</v>
       </c>
       <c r="C20" t="n">
-        <v>53.53110657407781</v>
+        <v>1212.133765150267</v>
       </c>
       <c r="D20" t="n">
-        <v>53.53110657407781</v>
+        <v>851.9269643880459</v>
       </c>
       <c r="E20" t="n">
-        <v>53.53110657407781</v>
+        <v>464.9390494837151</v>
       </c>
       <c r="F20" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G20" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H20" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I20" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J20" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K20" t="n">
         <v>461.191566563293</v>
@@ -5764,40 +5764,40 @@
         <v>1355.324135626645</v>
       </c>
       <c r="N20" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O20" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P20" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q20" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R20" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S20" t="n">
-        <v>2443.531235093138</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.358514782327</v>
+        <v>2576.078316009497</v>
       </c>
       <c r="U20" t="n">
-        <v>1970.451037928299</v>
+        <v>2322.170839155468</v>
       </c>
       <c r="V20" t="n">
-        <v>1638.599299016663</v>
+        <v>1990.319100243833</v>
       </c>
       <c r="W20" t="n">
-        <v>1284.528473763577</v>
+        <v>1990.319100243833</v>
       </c>
       <c r="X20" t="n">
-        <v>909.9207978735074</v>
+        <v>1990.319100243833</v>
       </c>
       <c r="Y20" t="n">
-        <v>519.3277961045823</v>
+        <v>1599.726098474908</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.4794979670861</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C21" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D21" t="n">
-        <v>659.1380762478473</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E21" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F21" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G21" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H21" t="n">
-        <v>115.4714096068663</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I21" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J21" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K21" t="n">
-        <v>239.7918714752596</v>
+        <v>309.7001854454658</v>
       </c>
       <c r="L21" t="n">
-        <v>645.0924182088986</v>
+        <v>715.0007321791048</v>
       </c>
       <c r="M21" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O21" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252654</v>
       </c>
       <c r="P21" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537544</v>
       </c>
       <c r="Q21" t="n">
         <v>2676.555328703891</v>
@@ -5876,7 +5876,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C22" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D22" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E22" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F22" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G22" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H22" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I22" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J22" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K22" t="n">
         <v>109.4344173802943</v>
       </c>
       <c r="L22" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M22" t="n">
         <v>381.630737830651</v>
       </c>
       <c r="N22" t="n">
-        <v>528.1833689256791</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O22" t="n">
-        <v>648.2118474172127</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P22" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q22" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R22" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8853266532924</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T22" t="n">
-        <v>285.8929627032433</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U22" t="n">
-        <v>53.53110657407781</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V22" t="n">
-        <v>53.53110657407781</v>
+        <v>472.203201228854</v>
       </c>
       <c r="W22" t="n">
-        <v>53.53110657407781</v>
+        <v>281.9557125663094</v>
       </c>
       <c r="X22" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2229.417035855089</v>
+        <v>751.6412272191641</v>
       </c>
       <c r="C23" t="n">
-        <v>2111.279211962652</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="D23" t="n">
-        <v>1751.072411200432</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="E23" t="n">
-        <v>1364.084496296101</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="F23" t="n">
-        <v>952.6765533864634</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="G23" t="n">
-        <v>535.0121627141084</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="H23" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I23" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J23" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733077</v>
       </c>
       <c r="K23" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L23" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M23" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N23" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O23" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P23" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q23" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R23" t="n">
-        <v>2620.010037624014</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S23" t="n">
-        <v>2620.010037624014</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T23" t="n">
-        <v>2620.010037624014</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="U23" t="n">
-        <v>2620.010037624014</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V23" t="n">
-        <v>2620.010037624014</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="W23" t="n">
-        <v>2620.010037624014</v>
+        <v>1284.528473763578</v>
       </c>
       <c r="X23" t="n">
-        <v>2620.010037624014</v>
+        <v>909.9207978735078</v>
       </c>
       <c r="Y23" t="n">
-        <v>2229.417035855089</v>
+        <v>751.6412272191641</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C24" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D24" t="n">
-        <v>659.1380762478473</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E24" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F24" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G24" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H24" t="n">
-        <v>115.4714096068662</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I24" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J24" t="n">
         <v>129.3364848865957</v>
@@ -6086,16 +6086,16 @@
         <v>2166.102944282447</v>
       </c>
       <c r="P24" t="n">
-        <v>2502.945759567337</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q24" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R24" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S24" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T24" t="n">
         <v>2272.420954324037</v>
@@ -6104,7 +6104,7 @@
         <v>2045.543118600485</v>
       </c>
       <c r="V24" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W24" t="n">
         <v>1558.777383459419</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="C25" t="n">
-        <v>53.53110657407781</v>
+        <v>269.685242893825</v>
       </c>
       <c r="D25" t="n">
-        <v>53.53110657407781</v>
+        <v>119.1745696468358</v>
       </c>
       <c r="E25" t="n">
-        <v>53.53110657407781</v>
+        <v>119.1745696468358</v>
       </c>
       <c r="F25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K25" t="n">
         <v>109.4344173802943</v>
@@ -6177,22 +6177,22 @@
         <v>727.6944649328329</v>
       </c>
       <c r="T25" t="n">
-        <v>499.7021009827838</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U25" t="n">
-        <v>499.7021009827838</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V25" t="n">
-        <v>244.2108372788048</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W25" t="n">
-        <v>244.2108372788048</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="X25" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7120640364536</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2035.055518525221</v>
+        <v>1462.158505567616</v>
       </c>
       <c r="C26" t="n">
-        <v>2035.055518525221</v>
+        <v>1091.466489730301</v>
       </c>
       <c r="D26" t="n">
-        <v>1674.848717763</v>
+        <v>1091.466489730301</v>
       </c>
       <c r="E26" t="n">
-        <v>1287.860802858669</v>
+        <v>1091.466489730301</v>
       </c>
       <c r="F26" t="n">
-        <v>876.4528599490318</v>
+        <v>952.6765533864634</v>
       </c>
       <c r="G26" t="n">
-        <v>458.7884692766768</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="H26" t="n">
-        <v>131.3703644689064</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I26" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J26" t="n">
         <v>167.7421803733075</v>
       </c>
       <c r="K26" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632931</v>
       </c>
       <c r="L26" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M26" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N26" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O26" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P26" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q26" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R26" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S26" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T26" t="n">
-        <v>2676.555328703891</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="U26" t="n">
-        <v>2422.647851849862</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="V26" t="n">
-        <v>2422.647851849862</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="W26" t="n">
-        <v>2422.647851849862</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="X26" t="n">
-        <v>2422.647851849862</v>
+        <v>1849.750838892258</v>
       </c>
       <c r="Y26" t="n">
-        <v>2422.647851849862</v>
+        <v>1849.750838892258</v>
       </c>
     </row>
     <row r="27">
@@ -6281,70 +6281,70 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C27" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D27" t="n">
         <v>659.1380762478473</v>
       </c>
       <c r="E27" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F27" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G27" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H27" t="n">
-        <v>115.4714096068663</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I27" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J27" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K27" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L27" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M27" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N27" t="n">
-        <v>1795.848577958314</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O27" t="n">
-        <v>2236.011258252653</v>
+        <v>2311.816636565171</v>
       </c>
       <c r="P27" t="n">
-        <v>2572.854073537543</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q27" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R27" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S27" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T27" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U27" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V27" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X27" t="n">
         <v>1352.250484864996</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2444.472006521771</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="C28" t="n">
-        <v>2444.472006521771</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="D28" t="n">
-        <v>2444.472006521771</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="E28" t="n">
-        <v>2444.472006521771</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="F28" t="n">
-        <v>2296.836631360352</v>
+        <v>222.497158523885</v>
       </c>
       <c r="G28" t="n">
-        <v>2296.836631360352</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H28" t="n">
-        <v>2139.076844710421</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I28" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J28" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K28" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L28" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M28" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N28" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O28" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P28" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2647.854549863712</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R28" t="n">
-        <v>2647.854549863712</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="S28" t="n">
-        <v>2647.854549863712</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="T28" t="n">
-        <v>2647.854549863712</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="U28" t="n">
-        <v>2647.854549863712</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="V28" t="n">
-        <v>2647.854549863712</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="W28" t="n">
-        <v>2647.854549863712</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="X28" t="n">
-        <v>2626.374725199229</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="Y28" t="n">
-        <v>2626.374725199229</v>
+        <v>291.4195809357134</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1251.006965692022</v>
+        <v>1538.435950617607</v>
       </c>
       <c r="C29" t="n">
-        <v>1251.006965692022</v>
+        <v>1167.743934780291</v>
       </c>
       <c r="D29" t="n">
-        <v>890.8001649298012</v>
+        <v>1167.743934780291</v>
       </c>
       <c r="E29" t="n">
-        <v>882.6034401560701</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="F29" t="n">
-        <v>471.1954972464329</v>
+        <v>625.258448578693</v>
       </c>
       <c r="G29" t="n">
-        <v>53.53110657407782</v>
+        <v>207.594057906338</v>
       </c>
       <c r="H29" t="n">
-        <v>53.53110657407782</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I29" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J29" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K29" t="n">
-        <v>461.1915665632932</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L29" t="n">
-        <v>877.2105568248487</v>
+        <v>877.2105568248484</v>
       </c>
       <c r="M29" t="n">
         <v>1355.324135626645</v>
@@ -6496,19 +6496,19 @@
         <v>2224.358514782328</v>
       </c>
       <c r="U29" t="n">
-        <v>1970.451037928299</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="V29" t="n">
-        <v>1638.599299016663</v>
+        <v>1892.506775870692</v>
       </c>
       <c r="W29" t="n">
-        <v>1638.599299016663</v>
+        <v>1538.435950617607</v>
       </c>
       <c r="X29" t="n">
-        <v>1638.599299016663</v>
+        <v>1538.435950617607</v>
       </c>
       <c r="Y29" t="n">
-        <v>1638.599299016663</v>
+        <v>1538.435950617607</v>
       </c>
     </row>
     <row r="30">
@@ -6545,31 +6545,31 @@
         <v>53.53110657407782</v>
       </c>
       <c r="K30" t="n">
-        <v>309.7001854454658</v>
+        <v>239.7918714752599</v>
       </c>
       <c r="L30" t="n">
-        <v>715.0007321791048</v>
+        <v>645.0924182088989</v>
       </c>
       <c r="M30" t="n">
-        <v>1240.767547500212</v>
+        <v>1170.859233530006</v>
       </c>
       <c r="N30" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O30" t="n">
-        <v>2236.011258252654</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P30" t="n">
-        <v>2572.854073537544</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q30" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R30" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S30" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T30" t="n">
         <v>2272.420954324036</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.53110657407782</v>
+        <v>222.5579277167064</v>
       </c>
       <c r="C31" t="n">
         <v>53.53110657407782</v>
@@ -6648,25 +6648,25 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S31" t="n">
-        <v>570.4313728016134</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T31" t="n">
-        <v>342.4390088515643</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="U31" t="n">
-        <v>53.53110657407782</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="V31" t="n">
-        <v>53.53110657407782</v>
+        <v>244.2108372788048</v>
       </c>
       <c r="W31" t="n">
-        <v>53.53110657407782</v>
+        <v>244.2108372788048</v>
       </c>
       <c r="X31" t="n">
-        <v>53.53110657407782</v>
+        <v>222.5579277167064</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.53110657407782</v>
+        <v>222.5579277167064</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1111.848027981385</v>
+        <v>835.6310653210309</v>
       </c>
       <c r="C32" t="n">
-        <v>741.1560121440689</v>
+        <v>464.9390494837151</v>
       </c>
       <c r="D32" t="n">
-        <v>380.9492113818483</v>
+        <v>464.9390494837151</v>
       </c>
       <c r="E32" t="n">
-        <v>380.9492113818483</v>
+        <v>464.9390494837151</v>
       </c>
       <c r="F32" t="n">
-        <v>380.9492113818483</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G32" t="n">
-        <v>380.9492113818483</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H32" t="n">
         <v>53.53110657407782</v>
@@ -6700,13 +6700,13 @@
         <v>53.53110657407782</v>
       </c>
       <c r="J32" t="n">
-        <v>167.7421803733076</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K32" t="n">
-        <v>461.1915665632931</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L32" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248484</v>
       </c>
       <c r="M32" t="n">
         <v>1355.324135626645</v>
@@ -6724,28 +6724,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R32" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S32" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="T32" t="n">
-        <v>2676.555328703891</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U32" t="n">
-        <v>2422.647851849862</v>
+        <v>2146.929840459176</v>
       </c>
       <c r="V32" t="n">
-        <v>2090.796112938227</v>
+        <v>1815.07810154754</v>
       </c>
       <c r="W32" t="n">
-        <v>1736.725287685141</v>
+        <v>1461.007276294455</v>
       </c>
       <c r="X32" t="n">
-        <v>1502.44102975031</v>
+        <v>1223.223398645672</v>
       </c>
       <c r="Y32" t="n">
-        <v>1111.848027981385</v>
+        <v>1223.223398645672</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>115.4714096068667</v>
       </c>
       <c r="I33" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407848</v>
       </c>
       <c r="J33" t="n">
         <v>53.53110657407782</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.6004796025031</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C34" t="n">
-        <v>138.6004796025031</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D34" t="n">
-        <v>138.6004796025031</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E34" t="n">
-        <v>138.6004796025031</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F34" t="n">
-        <v>138.6004796025031</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G34" t="n">
-        <v>138.6004796025031</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H34" t="n">
-        <v>138.6004796025031</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I34" t="n">
-        <v>99.47634060639649</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J34" t="n">
         <v>53.53110657407782</v>
@@ -6882,28 +6882,28 @@
         <v>727.6944649328329</v>
       </c>
       <c r="R34" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S34" t="n">
-        <v>366.5928435525523</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T34" t="n">
-        <v>138.6004796025031</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U34" t="n">
-        <v>138.6004796025031</v>
+        <v>598.0047711744362</v>
       </c>
       <c r="V34" t="n">
-        <v>138.6004796025031</v>
+        <v>342.5135074704572</v>
       </c>
       <c r="W34" t="n">
-        <v>138.6004796025031</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="X34" t="n">
-        <v>138.6004796025031</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.6004796025031</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>792.3571542914855</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="C35" t="n">
-        <v>792.3571542914855</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="D35" t="n">
-        <v>792.3571542914855</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E35" t="n">
-        <v>792.3571542914855</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F35" t="n">
-        <v>380.9492113818482</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G35" t="n">
-        <v>380.9492113818482</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H35" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I35" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J35" t="n">
-        <v>167.7421803733072</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K35" t="n">
-        <v>461.1915665632926</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L35" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248484</v>
       </c>
       <c r="M35" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N35" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O35" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P35" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q35" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R35" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S35" t="n">
-        <v>2553.128467382237</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="T35" t="n">
-        <v>2553.128467382237</v>
+        <v>2280.903805862204</v>
       </c>
       <c r="U35" t="n">
-        <v>2299.220990528208</v>
+        <v>2026.996329008175</v>
       </c>
       <c r="V35" t="n">
-        <v>2299.220990528208</v>
+        <v>1695.14459009654</v>
       </c>
       <c r="W35" t="n">
-        <v>1945.150165275122</v>
+        <v>1695.14459009654</v>
       </c>
       <c r="X35" t="n">
-        <v>1570.542489385052</v>
+        <v>1660.788775249637</v>
       </c>
       <c r="Y35" t="n">
-        <v>1179.949487616127</v>
+        <v>1270.195773480712</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C36" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D36" t="n">
-        <v>659.1380762478469</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E36" t="n">
-        <v>501.5285472507016</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F36" t="n">
-        <v>356.5727572673185</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G36" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H36" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I36" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J36" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K36" t="n">
-        <v>309.7001854454657</v>
+        <v>239.7918714752599</v>
       </c>
       <c r="L36" t="n">
-        <v>715.0007321791047</v>
+        <v>645.0924182088989</v>
       </c>
       <c r="M36" t="n">
-        <v>1240.767547500212</v>
+        <v>1170.859233530006</v>
       </c>
       <c r="N36" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O36" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P36" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q36" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R36" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S36" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T36" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U36" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V36" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W36" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X36" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y36" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.53110657407781</v>
+        <v>324.8334898232854</v>
       </c>
       <c r="C37" t="n">
-        <v>53.53110657407781</v>
+        <v>324.8334898232854</v>
       </c>
       <c r="D37" t="n">
-        <v>53.53110657407781</v>
+        <v>174.3228165762961</v>
       </c>
       <c r="E37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K37" t="n">
         <v>109.4344173802943</v>
@@ -7116,31 +7116,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R37" t="n">
-        <v>551.7012029919139</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S37" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T37" t="n">
-        <v>109.8997007623243</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U37" t="n">
-        <v>53.53110657407781</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V37" t="n">
-        <v>53.53110657407781</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W37" t="n">
-        <v>53.53110657407781</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X37" t="n">
-        <v>53.53110657407781</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.53110657407781</v>
+        <v>506.7362085007438</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1036.892766453974</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="C38" t="n">
-        <v>1036.892766453974</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="D38" t="n">
-        <v>1036.66639148833</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.66639148833</v>
+        <v>1251.611384112332</v>
       </c>
       <c r="F38" t="n">
-        <v>625.258448578693</v>
+        <v>840.2034412026951</v>
       </c>
       <c r="G38" t="n">
-        <v>207.594057906338</v>
+        <v>422.5390505303401</v>
       </c>
       <c r="H38" t="n">
-        <v>207.594057906338</v>
+        <v>95.12094572256967</v>
       </c>
       <c r="I38" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J38" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733077</v>
       </c>
       <c r="K38" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L38" t="n">
-        <v>877.2105568248487</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M38" t="n">
         <v>1355.324135626645</v>
@@ -7201,25 +7201,25 @@
         <v>2620.010037624015</v>
       </c>
       <c r="S38" t="n">
-        <v>2620.010037624015</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T38" t="n">
-        <v>2400.837317313204</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="U38" t="n">
-        <v>2146.929840459176</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V38" t="n">
-        <v>1815.07810154754</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="W38" t="n">
-        <v>1815.07810154754</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="X38" t="n">
-        <v>1815.07810154754</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="Y38" t="n">
-        <v>1424.485099778615</v>
+        <v>1638.599299016663</v>
       </c>
     </row>
     <row r="39">
@@ -7262,16 +7262,16 @@
         <v>790.8061104916227</v>
       </c>
       <c r="M39" t="n">
-        <v>1316.57292581273</v>
+        <v>1170.859233530006</v>
       </c>
       <c r="N39" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O39" t="n">
-        <v>2311.816636565171</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P39" t="n">
-        <v>2648.659451850061</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q39" t="n">
         <v>2676.555328703891</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.4019818320927</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C40" t="n">
-        <v>580.4019818320927</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D40" t="n">
-        <v>429.8913085851034</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E40" t="n">
-        <v>429.8913085851034</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F40" t="n">
-        <v>429.8913085851034</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G40" t="n">
-        <v>393.9210016216131</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H40" t="n">
-        <v>236.1612149716819</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I40" t="n">
-        <v>99.47634060639649</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J40" t="n">
         <v>53.53110657407782</v>
@@ -7356,28 +7356,28 @@
         <v>727.6944649328329</v>
       </c>
       <c r="R40" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S40" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T40" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U40" t="n">
-        <v>580.4019818320927</v>
+        <v>598.0047711744362</v>
       </c>
       <c r="V40" t="n">
-        <v>580.4019818320927</v>
+        <v>342.5135074704572</v>
       </c>
       <c r="W40" t="n">
-        <v>580.4019818320927</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="X40" t="n">
-        <v>580.4019818320927</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y40" t="n">
-        <v>580.4019818320927</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2481.971227799968</v>
+        <v>1169.305617891519</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.279211962652</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="D41" t="n">
-        <v>1751.072411200432</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="E41" t="n">
-        <v>1364.084496296101</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="F41" t="n">
-        <v>952.6765533864634</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G41" t="n">
-        <v>535.0121627141084</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="H41" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I41" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J41" t="n">
         <v>167.7421803733075</v>
       </c>
       <c r="K41" t="n">
-        <v>461.1915665632929</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L41" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248484</v>
       </c>
       <c r="M41" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N41" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O41" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P41" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q41" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R41" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S41" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T41" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="U41" t="n">
-        <v>2620.010037624014</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="V41" t="n">
-        <v>2620.010037624014</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="W41" t="n">
-        <v>2620.010037624014</v>
+        <v>2068.577026596777</v>
       </c>
       <c r="X41" t="n">
-        <v>2620.010037624014</v>
+        <v>1693.969350706707</v>
       </c>
       <c r="Y41" t="n">
-        <v>2620.010037624014</v>
+        <v>1556.89795121616</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.4794979670866</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C42" t="n">
-        <v>806.7263828889038</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D42" t="n">
-        <v>659.1380762478477</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E42" t="n">
-        <v>501.5285472507024</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F42" t="n">
-        <v>356.5727572673193</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G42" t="n">
-        <v>219.9143827707591</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4714096068665</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I42" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J42" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K42" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L42" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M42" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N42" t="n">
-        <v>1795.848577958314</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O42" t="n">
-        <v>2236.011258252653</v>
+        <v>2311.816636565171</v>
       </c>
       <c r="P42" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q42" t="n">
         <v>2676.555328703891</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="C43" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="D43" t="n">
-        <v>53.53110657407781</v>
+        <v>288.2013907894644</v>
       </c>
       <c r="E43" t="n">
-        <v>53.53110657407781</v>
+        <v>139.7421744528995</v>
       </c>
       <c r="F43" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G43" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H43" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I43" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J43" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K43" t="n">
         <v>109.4344173802943</v>
@@ -7590,31 +7590,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R43" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S43" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T43" t="n">
-        <v>471.001322142605</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U43" t="n">
-        <v>471.001322142605</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V43" t="n">
-        <v>215.510058438626</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W43" t="n">
-        <v>215.510058438626</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="X43" t="n">
-        <v>215.510058438626</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7120640364536</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1396.873192250551</v>
+        <v>1771.460044228359</v>
       </c>
       <c r="C44" t="n">
-        <v>1396.873192250551</v>
+        <v>1771.460044228359</v>
       </c>
       <c r="D44" t="n">
-        <v>1036.66639148833</v>
+        <v>1411.253243466139</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.66639148833</v>
+        <v>1024.265328561808</v>
       </c>
       <c r="F44" t="n">
-        <v>625.258448578693</v>
+        <v>612.8573856521707</v>
       </c>
       <c r="G44" t="n">
-        <v>207.594057906338</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="H44" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I44" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J44" t="n">
-        <v>167.7421803733076</v>
+        <v>167.7421803733077</v>
       </c>
       <c r="K44" t="n">
-        <v>461.1915665632931</v>
+        <v>461.1915665632933</v>
       </c>
       <c r="L44" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248487</v>
       </c>
       <c r="M44" t="n">
         <v>1355.324135626645</v>
@@ -7672,28 +7672,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R44" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S44" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T44" t="n">
-        <v>2400.837317313204</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="U44" t="n">
-        <v>2175.058527344117</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="V44" t="n">
-        <v>2175.058527344117</v>
+        <v>2125.530869481445</v>
       </c>
       <c r="W44" t="n">
-        <v>2175.058527344117</v>
+        <v>1771.460044228359</v>
       </c>
       <c r="X44" t="n">
-        <v>2175.058527344117</v>
+        <v>1771.460044228359</v>
       </c>
       <c r="Y44" t="n">
-        <v>1784.465525575192</v>
+        <v>1771.460044228359</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C45" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D45" t="n">
-        <v>659.1380762478473</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E45" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F45" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G45" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I45" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J45" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K45" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454658</v>
       </c>
       <c r="L45" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791048</v>
       </c>
       <c r="M45" t="n">
-        <v>1316.57292581273</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N45" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O45" t="n">
-        <v>2311.816636565171</v>
+        <v>2236.011258252654</v>
       </c>
       <c r="P45" t="n">
-        <v>2502.945759567338</v>
+        <v>2572.854073537544</v>
       </c>
       <c r="Q45" t="n">
         <v>2676.555328703891</v>
@@ -7763,7 +7763,7 @@
         <v>2045.543118600485</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W45" t="n">
         <v>1558.777383459419</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.6944649328329</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="C46" t="n">
-        <v>558.6676437902044</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="D46" t="n">
-        <v>408.1569705432151</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="E46" t="n">
-        <v>380.2569451738163</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="F46" t="n">
-        <v>380.2569451738163</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G46" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H46" t="n">
         <v>53.53110657407782</v>
@@ -7845,13 +7845,13 @@
         <v>727.6944649328329</v>
       </c>
       <c r="W46" t="n">
-        <v>727.6944649328329</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="X46" t="n">
-        <v>727.6944649328329</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="Y46" t="n">
-        <v>727.6944649328329</v>
+        <v>438.7120640364536</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
-        <v>434.3676631324684</v>
+        <v>434.3676631324683</v>
       </c>
       <c r="M2" t="n">
         <v>467.4940748325458</v>
@@ -8057,16 +8057,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>385.6739591155975</v>
+        <v>171.8759034615937</v>
       </c>
       <c r="M3" t="n">
-        <v>146.6066368521111</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
@@ -8075,7 +8075,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
         <v>218.4803792452831</v>
@@ -8297,13 +8297,13 @@
         <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>397.1900756823312</v>
+        <v>256.5416321892494</v>
       </c>
       <c r="N6" t="n">
         <v>402.3419766228525</v>
@@ -8531,13 +8531,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>171.8759034615937</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
         <v>412.8644904155703</v>
@@ -8549,10 +8549,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8771,25 +8771,25 @@
         <v>109.8042458063405</v>
       </c>
       <c r="K12" t="n">
-        <v>110.7022847320477</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>454.7641991243832</v>
+        <v>294.2019139680107</v>
       </c>
       <c r="N12" t="n">
-        <v>443.2577165718071</v>
+        <v>443.2577165718074</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>207.1136538029961</v>
+        <v>102.6067137648083</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.7527158117566</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9008,7 +9008,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>127.8582987327545</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>71.29483148495585</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>54.56358754946166</v>
+        <v>54.56358754946163</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.8659206895198</v>
+        <v>147.8659206895194</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,10 +9479,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>54.56358754946166</v>
+        <v>54.56358754946163</v>
       </c>
       <c r="K21" t="n">
-        <v>204.4293879373181</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895194</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9728,7 +9728,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>351.3305215569683</v>
+        <v>351.3305215569687</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9877,7 +9877,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740115</v>
       </c>
       <c r="L26" t="n">
         <v>434.3676631324684</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>54.56358754946163</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>147.8659206895194</v>
+        <v>71.29483148495586</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10193,7 +10193,7 @@
         <v>54.56358754946163</v>
       </c>
       <c r="K30" t="n">
-        <v>275.0438464930818</v>
+        <v>204.4293879373183</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>147.8659206895194</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10357,7 +10357,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M32" t="n">
-        <v>467.4940748325458</v>
+        <v>467.4940748325459</v>
       </c>
       <c r="N32" t="n">
         <v>454.8408013884635</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>175.8604797789564</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
         <v>337.1112290740114</v>
@@ -10664,10 +10664,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>54.56358754946163</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>127.8582987327547</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>147.8659206895194</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10910,7 +10910,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>484.3332662999999</v>
+        <v>337.147718539673</v>
       </c>
       <c r="N39" t="n">
         <v>498.5160693172957</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.29483148495586</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11068,7 +11068,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M41" t="n">
-        <v>467.4940748325456</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N41" t="n">
         <v>454.8408013884635</v>
@@ -11080,7 +11080,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.8075902863009</v>
+        <v>220.8075902863007</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>54.56358754946163</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11156,10 +11156,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>331.2012793855346</v>
+        <v>184.0157316252075</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.8659206895194</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789569</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>337.1112290740114</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946162</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11393,10 +11393,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>184.0157316252075</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895193</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22549,19 +22549,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>92.70128833734009</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>115.0155552481151</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E2" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G2" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
@@ -22606,16 +22606,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>54.2494141809168</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>76.24630965895204</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.6870717512358</v>
+        <v>145.0978942447525</v>
       </c>
     </row>
     <row r="3">
@@ -22625,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>43.4738434543048</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
         <v>136.0232102050423</v>
@@ -22676,19 +22676,19 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>9.458801139478595</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
@@ -22728,10 +22728,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.460827879852118</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
@@ -22761,7 +22761,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142.1272324849117</v>
+        <v>283.9780551857888</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -22792,13 +22792,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F5" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G5" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H5" t="n">
         <v>338.1439033881534</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -22846,13 +22846,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129.3032096083016</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
@@ -22913,10 +22913,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="7">
@@ -22962,10 +22962,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>63.6842650835742</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
         <v>14.77440971783335</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="S7" t="n">
         <v>222.3574069614225</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142.7865096194741</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -23029,7 +23029,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F8" t="n">
         <v>407.2938634805408</v>
@@ -23041,10 +23041,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>54.16726291733555</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -23083,13 +23083,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
         <v>96.5777917895669</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
         <v>146.1124235746456</v>
@@ -23111,7 +23111,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
@@ -23153,13 +23153,13 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>188.4650489258619</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>161.9879688231744</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -23266,16 +23266,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>178.477371519994</v>
+        <v>29.75736126340155</v>
       </c>
       <c r="F11" t="n">
-        <v>53.93318898865539</v>
+        <v>53.93318898865493</v>
       </c>
       <c r="G11" t="n">
-        <v>61.21985987830779</v>
+        <v>61.21985987830732</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>335.3354348149113</v>
       </c>
       <c r="I11" t="n">
         <v>194.6520159438068</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>199.6159120445203</v>
+        <v>199.6159120445202</v>
       </c>
       <c r="T11" t="n">
-        <v>221.7646708466714</v>
+        <v>35.14924628835163</v>
       </c>
       <c r="U11" t="n">
         <v>251.4558250938534</v>
@@ -23345,10 +23345,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>10.25037555361152</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>135.87648366662</v>
@@ -23357,7 +23357,7 @@
         <v>109.0454460589492</v>
       </c>
       <c r="I12" t="n">
-        <v>81.45177448909048</v>
+        <v>81.45177448909045</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>85.58506362992536</v>
+        <v>85.58506362992532</v>
       </c>
       <c r="S12" t="n">
-        <v>166.2362328081954</v>
+        <v>28.41986823210294</v>
       </c>
       <c r="T12" t="n">
-        <v>197.791120992435</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23439,10 +23439,10 @@
         <v>150.059282543399</v>
       </c>
       <c r="J13" t="n">
-        <v>80.14199544065868</v>
+        <v>80.14199544065862</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4828144438977748</v>
+        <v>0.4828144438976896</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.46023946362433</v>
+        <v>69.46023946362428</v>
       </c>
       <c r="R13" t="n">
-        <v>122.2656739701389</v>
+        <v>167.8601437398225</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>220.2136676703322</v>
       </c>
       <c r="T13" t="n">
         <v>227.8068752419967</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0455607219215</v>
+        <v>20.23742328190508</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>152.5223218189376</v>
+        <v>113.3368590467685</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>85.27350364905084</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23667,16 +23667,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>11.07399207371152</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S16" t="n">
         <v>211.671046896745</v>
       </c>
       <c r="T16" t="n">
-        <v>225.7124403105487</v>
+        <v>130.4021156775082</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23734,25 +23734,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>44.84910790823164</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>42.32819795782649</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23892,7 +23892,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -23907,13 +23907,13 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1821887834319</v>
+        <v>88.34861523668668</v>
       </c>
       <c r="I19" t="n">
         <v>135.3180256216325</v>
       </c>
       <c r="J19" t="n">
-        <v>45.48578169199548</v>
+        <v>45.48578169199547</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.41377105177701</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R19" t="n">
         <v>145.8195582697328</v>
@@ -23943,7 +23943,7 @@
         <v>211.671046896745</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U19" t="n">
         <v>286.0188232547115</v>
@@ -23958,7 +23958,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>209.2909877003694</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>289.5627830351383</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.4877467656314</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>117.5087505402519</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J22" t="n">
-        <v>45.48578169199548</v>
+        <v>45.48578169199547</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.41377105177701</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R22" t="n">
         <v>145.8195582697328</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U22" t="n">
-        <v>55.98058568683777</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>97.74756311149648</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24208,25 +24208,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>250.0286500254298</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>229.9902968034355</v>
       </c>
     </row>
     <row r="24">
@@ -24366,16 +24366,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>81.17199296777413</v>
       </c>
       <c r="G25" t="n">
         <v>167.2763914303091</v>
@@ -24417,19 +24417,19 @@
         <v>211.671046896745</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U25" t="n">
         <v>286.0188232547115</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>37.36742653462949</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24445,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>269.8918265001421</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>75.46145650305729</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24508,7 +24508,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -24612,16 +24612,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>77.92582322209445</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J28" t="n">
         <v>45.48578169199547</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R28" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>211.671046896745</v>
@@ -24663,10 +24663,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>204.8753335144718</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>375.0032782292936</v>
+        <v>253.3512678962466</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I29" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
@@ -24840,7 +24840,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -24888,22 +24888,22 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S31" t="n">
-        <v>55.98058568683768</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>204.7039794658318</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I32" t="n">
         <v>152.5223218189376</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T32" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>138.9201837756865</v>
+        <v>135.4555602588748</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -25095,10 +25095,10 @@
         <v>156.1821887834319</v>
       </c>
       <c r="I34" t="n">
-        <v>96.58512801548699</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.48578169199547</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>28.41377105177699</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0188232547115</v>
+        <v>157.6260264338988</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I35" t="n">
         <v>152.5223218189376</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S35" t="n">
-        <v>108.501259966208</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>336.8493424327356</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>27.39083127100305</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U37" t="n">
-        <v>230.2139150083476</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>356.3806215386113</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>111.3483810619306</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -25563,16 +25563,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>131.6657875364537</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.48578169199547</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>28.41377105177699</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S40" t="n">
         <v>211.671046896745</v>
@@ -25605,13 +25605,13 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0188232547115</v>
+        <v>157.6260264338988</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>247.0579882655891</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S41" t="n">
         <v>174.714014505568</v>
@@ -25684,19 +25684,19 @@
         <v>216.980993107702</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>250.9863862555947</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>60.810064209771</v>
       </c>
       <c r="G43" t="n">
         <v>167.2763914303091</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R43" t="n">
         <v>145.8195582697328</v>
@@ -25839,22 +25839,22 @@
         <v>211.671046896745</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U43" t="n">
         <v>286.0188232547115</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>58.3895115218655</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>183.8986542380122</v>
       </c>
       <c r="H44" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>152.5223218189375</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>55.97983816907735</v>
       </c>
       <c r="S44" t="n">
         <v>174.714014505568</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>27.84740001609233</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -26025,28 +26025,28 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>79.141050626454</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>119.3535990574944</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I46" t="n">
         <v>135.3180256216325</v>
       </c>
       <c r="J46" t="n">
-        <v>45.48578169199547</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.41377105177699</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R46" t="n">
         <v>145.8195582697328</v>
@@ -26085,7 +26085,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>493759.0957113997</v>
+        <v>493759.0957113996</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>554180.0840155584</v>
+        <v>554180.0840155587</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795066.354972466</v>
+        <v>795066.3549724661</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>795066.354972466</v>
+        <v>795066.3549724662</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795066.3549724659</v>
+        <v>795066.3549724661</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>795066.3549724662</v>
+        <v>795066.3549724661</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>795066.354972466</v>
+        <v>795066.3549724661</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>795066.3549724661</v>
+        <v>795066.354972466</v>
       </c>
     </row>
     <row r="15">
@@ -26316,22 +26316,22 @@
         <v>138541.6990738806</v>
       </c>
       <c r="C2" t="n">
-        <v>138541.6990738806</v>
+        <v>138541.6990738805</v>
       </c>
       <c r="D2" t="n">
         <v>138541.6990738806</v>
       </c>
       <c r="E2" t="n">
-        <v>156362.521147384</v>
+        <v>156362.5211473842</v>
       </c>
       <c r="F2" t="n">
-        <v>227408.2160355475</v>
+        <v>227408.2160355476</v>
       </c>
       <c r="G2" t="n">
-        <v>227408.2160355475</v>
+        <v>227408.2160355476</v>
       </c>
       <c r="H2" t="n">
-        <v>227408.2160355475</v>
+        <v>227408.2160355476</v>
       </c>
       <c r="I2" t="n">
         <v>227408.2160355476</v>
@@ -26340,22 +26340,22 @@
         <v>227408.2160355476</v>
       </c>
       <c r="K2" t="n">
-        <v>227408.2160355475</v>
+        <v>227408.2160355476</v>
       </c>
       <c r="L2" t="n">
         <v>227408.2160355476</v>
       </c>
       <c r="M2" t="n">
-        <v>227408.2160355475</v>
+        <v>227408.2160355476</v>
       </c>
       <c r="N2" t="n">
         <v>227408.2160355476</v>
       </c>
       <c r="O2" t="n">
+        <v>227408.2160355477</v>
+      </c>
+      <c r="P2" t="n">
         <v>227408.2160355476</v>
-      </c>
-      <c r="P2" t="n">
-        <v>227408.2160355475</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>78414.72407550624</v>
+        <v>78414.7240755067</v>
       </c>
       <c r="F3" t="n">
-        <v>305346.0413079462</v>
+        <v>305346.0413079459</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808625</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>19706.27160131908</v>
+        <v>19706.27160131921</v>
       </c>
       <c r="N3" t="n">
-        <v>77342.59682709044</v>
+        <v>77342.59682709032</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>26386.18069453981</v>
       </c>
       <c r="E4" t="n">
-        <v>26722.38581374896</v>
+        <v>26722.38581374897</v>
       </c>
       <c r="F4" t="n">
+        <v>28073.00293688769</v>
+      </c>
+      <c r="G4" t="n">
         <v>28073.00293688768</v>
-      </c>
-      <c r="G4" t="n">
-        <v>28073.00293688769</v>
       </c>
       <c r="H4" t="n">
         <v>28073.00293688769</v>
       </c>
       <c r="I4" t="n">
-        <v>28073.00293688768</v>
+        <v>28073.00293688769</v>
       </c>
       <c r="J4" t="n">
         <v>28073.00293688769</v>
       </c>
       <c r="K4" t="n">
-        <v>28073.00293688769</v>
+        <v>28073.00293688768</v>
       </c>
       <c r="L4" t="n">
         <v>28073.00293688769</v>
       </c>
       <c r="M4" t="n">
-        <v>28073.00293688768</v>
+        <v>28073.00293688769</v>
       </c>
       <c r="N4" t="n">
         <v>28073.00293688768</v>
@@ -26459,7 +26459,7 @@
         <v>28073.00293688768</v>
       </c>
       <c r="P4" t="n">
-        <v>28073.00293688769</v>
+        <v>28073.00293688768</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>22971.41534676544</v>
+        <v>22971.41534676548</v>
       </c>
       <c r="F5" t="n">
-        <v>48096.6413165955</v>
+        <v>48096.64131659552</v>
       </c>
       <c r="G5" t="n">
-        <v>48096.6413165955</v>
+        <v>48096.64131659552</v>
       </c>
       <c r="H5" t="n">
-        <v>48096.6413165955</v>
+        <v>48096.64131659552</v>
       </c>
       <c r="I5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.64131659552</v>
       </c>
       <c r="J5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.64131659552</v>
       </c>
       <c r="K5" t="n">
         <v>48096.64131659552</v>
@@ -26502,13 +26502,13 @@
         <v>48096.64131659552</v>
       </c>
       <c r="M5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.64131659552</v>
       </c>
       <c r="N5" t="n">
         <v>48096.64131659552</v>
       </c>
       <c r="O5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.64131659552</v>
       </c>
       <c r="P5" t="n">
         <v>48096.64131659552</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30067.3494747685</v>
+        <v>-41756.47849802434</v>
       </c>
       <c r="C6" t="n">
-        <v>61851.46289297138</v>
+        <v>50162.33386971541</v>
       </c>
       <c r="D6" t="n">
-        <v>61851.46289297135</v>
+        <v>50162.3338697155</v>
       </c>
       <c r="E6" t="n">
-        <v>28253.99591136338</v>
+        <v>17678.66826770111</v>
       </c>
       <c r="F6" t="n">
-        <v>-154107.4695258818</v>
+        <v>-160242.4412390332</v>
       </c>
       <c r="G6" t="n">
-        <v>151238.5717820643</v>
+        <v>145103.6000689127</v>
       </c>
       <c r="H6" t="n">
-        <v>151238.5717820644</v>
+        <v>145103.6000689127</v>
       </c>
       <c r="I6" t="n">
-        <v>151238.5717820644</v>
+        <v>145103.6000689127</v>
       </c>
       <c r="J6" t="n">
-        <v>79473.85929397814</v>
+        <v>73338.88758082647</v>
       </c>
       <c r="K6" t="n">
-        <v>151238.5717820644</v>
+        <v>145103.6000689127</v>
       </c>
       <c r="L6" t="n">
-        <v>151238.5717820644</v>
+        <v>145103.6000689127</v>
       </c>
       <c r="M6" t="n">
-        <v>131532.3001807453</v>
+        <v>125397.3284675935</v>
       </c>
       <c r="N6" t="n">
-        <v>73895.97495497399</v>
+        <v>67761.00324182241</v>
       </c>
       <c r="O6" t="n">
-        <v>151238.5717820644</v>
+        <v>145103.6000689128</v>
       </c>
       <c r="P6" t="n">
-        <v>151238.5717820643</v>
+        <v>145103.6000689127</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>68.2149696173764</v>
+        <v>68.21496961737681</v>
       </c>
       <c r="F3" t="n">
-        <v>340.0458862521269</v>
+        <v>340.0458862521271</v>
       </c>
       <c r="G3" t="n">
-        <v>340.0458862521269</v>
+        <v>340.045886252127</v>
       </c>
       <c r="H3" t="n">
-        <v>340.0458862521269</v>
+        <v>340.045886252127</v>
       </c>
       <c r="I3" t="n">
         <v>340.045886252127</v>
@@ -26779,7 +26779,7 @@
         <v>340.045886252127</v>
       </c>
       <c r="P3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521271</v>
       </c>
     </row>
     <row r="4">
@@ -26798,22 +26798,22 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>353.3606744918854</v>
+        <v>353.3606744918859</v>
       </c>
       <c r="F4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="G4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="H4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="I4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="J4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="K4" t="n">
         <v>669.1388321759728</v>
@@ -26822,13 +26822,13 @@
         <v>669.1388321759728</v>
       </c>
       <c r="M4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="N4" t="n">
         <v>669.1388321759728</v>
       </c>
       <c r="O4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="P4" t="n">
         <v>669.1388321759728</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>68.2149696173764</v>
+        <v>68.21496961737681</v>
       </c>
       <c r="F3" t="n">
-        <v>271.8309166347506</v>
+        <v>271.8309166347503</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>79.07686715028294</v>
+        <v>79.07686715028342</v>
       </c>
       <c r="F4" t="n">
-        <v>315.7781576840872</v>
+        <v>315.7781576840868</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>79.07686715028282</v>
+        <v>79.07686715028333</v>
       </c>
       <c r="N4" t="n">
-        <v>315.7781576840873</v>
+        <v>315.7781576840868</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>79.07686715028294</v>
+        <v>79.07686715028342</v>
       </c>
       <c r="N4" t="n">
-        <v>315.7781576840872</v>
+        <v>315.7781576840868</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2742310336376939</v>
+        <v>0.2742310336376955</v>
       </c>
       <c r="H11" t="n">
-        <v>2.808468573242033</v>
+        <v>2.80846857324205</v>
       </c>
       <c r="I11" t="n">
-        <v>10.5722919243172</v>
+        <v>10.57229192431727</v>
       </c>
       <c r="J11" t="n">
-        <v>23.27501619120724</v>
+        <v>23.27501619120738</v>
       </c>
       <c r="K11" t="n">
-        <v>34.88321584509082</v>
+        <v>34.88321584509104</v>
       </c>
       <c r="L11" t="n">
-        <v>43.27571384078041</v>
+        <v>43.27571384078067</v>
       </c>
       <c r="M11" t="n">
-        <v>48.15256998523475</v>
+        <v>48.15256998523503</v>
       </c>
       <c r="N11" t="n">
-        <v>48.93172890955785</v>
+        <v>48.93172890955815</v>
       </c>
       <c r="O11" t="n">
-        <v>46.20484406882303</v>
+        <v>46.20484406882331</v>
       </c>
       <c r="P11" t="n">
-        <v>39.43476542589245</v>
+        <v>39.43476542589269</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.61386653374253</v>
+        <v>29.61386653374271</v>
       </c>
       <c r="R11" t="n">
-        <v>17.2261651667438</v>
+        <v>17.2261651667439</v>
       </c>
       <c r="S11" t="n">
-        <v>6.249039679018955</v>
+        <v>6.249039679018993</v>
       </c>
       <c r="T11" t="n">
-        <v>1.200446349749005</v>
+        <v>1.200446349749013</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0219384826910155</v>
+        <v>0.02193848269101564</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1467265384222813</v>
+        <v>0.1467265384222822</v>
       </c>
       <c r="H12" t="n">
-        <v>1.417069463183612</v>
+        <v>1.41706946318362</v>
       </c>
       <c r="I12" t="n">
-        <v>5.051768976381178</v>
+        <v>5.051768976381208</v>
       </c>
       <c r="J12" t="n">
-        <v>13.86244019365948</v>
+        <v>13.86244019365957</v>
       </c>
       <c r="K12" t="n">
-        <v>23.69311826795233</v>
+        <v>23.69311826795247</v>
       </c>
       <c r="L12" t="n">
-        <v>31.85832142366244</v>
+        <v>31.85832142366263</v>
       </c>
       <c r="M12" t="n">
-        <v>37.17715844147013</v>
+        <v>37.17715844147035</v>
       </c>
       <c r="N12" t="n">
-        <v>38.16112720132833</v>
+        <v>38.16112720132856</v>
       </c>
       <c r="O12" t="n">
-        <v>34.9099760078662</v>
+        <v>34.90997600786641</v>
       </c>
       <c r="P12" t="n">
-        <v>28.01833346416353</v>
+        <v>28.0183334641637</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.72951392211437</v>
+        <v>18.72951392211448</v>
       </c>
       <c r="R12" t="n">
-        <v>9.109916131165855</v>
+        <v>9.10991613116591</v>
       </c>
       <c r="S12" t="n">
-        <v>2.725381097448952</v>
+        <v>2.725381097448968</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5914109158336688</v>
+        <v>0.5914109158336723</v>
       </c>
       <c r="U12" t="n">
-        <v>0.009653061738307985</v>
+        <v>0.009653061738308042</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1230106009493673</v>
+        <v>0.123010600949368</v>
       </c>
       <c r="H13" t="n">
-        <v>1.093676070258921</v>
+        <v>1.093676070258927</v>
       </c>
       <c r="I13" t="n">
-        <v>3.699264254004609</v>
+        <v>3.699264254004631</v>
       </c>
       <c r="J13" t="n">
-        <v>8.696849487120264</v>
+        <v>8.696849487120318</v>
       </c>
       <c r="K13" t="n">
-        <v>14.29159527393558</v>
+        <v>14.29159527393566</v>
       </c>
       <c r="L13" t="n">
-        <v>18.28832152659957</v>
+        <v>18.28832152659968</v>
       </c>
       <c r="M13" t="n">
-        <v>19.28247083790854</v>
+        <v>19.28247083790866</v>
       </c>
       <c r="N13" t="n">
-        <v>18.82397677982455</v>
+        <v>18.82397677982467</v>
       </c>
       <c r="O13" t="n">
-        <v>17.38698930509785</v>
+        <v>17.38698930509795</v>
       </c>
       <c r="P13" t="n">
-        <v>14.87757304573074</v>
+        <v>14.87757304573083</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.30046041222383</v>
+        <v>10.3004604122239</v>
       </c>
       <c r="R13" t="n">
-        <v>5.53100392995973</v>
+        <v>5.531003929959764</v>
       </c>
       <c r="S13" t="n">
-        <v>2.143739291090336</v>
+        <v>2.143739291090349</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5255907495109327</v>
+        <v>0.5255907495109359</v>
       </c>
       <c r="U13" t="n">
-        <v>0.006709669142692767</v>
+        <v>0.006709669142692808</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.367018638199504</v>
+        <v>1.367018638199505</v>
       </c>
       <c r="H14" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J14" t="n">
         <v>116.0239981438853</v>
       </c>
       <c r="K14" t="n">
-        <v>173.8898970988703</v>
+        <v>173.8898970988704</v>
       </c>
       <c r="L14" t="n">
         <v>215.7257937476685</v>
       </c>
       <c r="M14" t="n">
-        <v>240.0365114547489</v>
+        <v>240.036511454749</v>
       </c>
       <c r="N14" t="n">
-        <v>243.9205531605332</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O14" t="n">
-        <v>230.3272615769369</v>
+        <v>230.327261576937</v>
       </c>
       <c r="P14" t="n">
-        <v>196.5789889463866</v>
+        <v>196.5789889463867</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.6226339658668</v>
+        <v>147.6226339658669</v>
       </c>
       <c r="R14" t="n">
-        <v>85.87098453179968</v>
+        <v>85.87098453179972</v>
       </c>
       <c r="S14" t="n">
-        <v>31.15093721797123</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T14" t="n">
-        <v>5.984124088718333</v>
+        <v>5.984124088718336</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.1093614910559604</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7314194534479712</v>
+        <v>0.7314194534479715</v>
       </c>
       <c r="H15" t="n">
-        <v>7.063972089879091</v>
+        <v>7.063972089879095</v>
       </c>
       <c r="I15" t="n">
-        <v>25.18264346301129</v>
+        <v>25.1826434630113</v>
       </c>
       <c r="J15" t="n">
-        <v>69.10309845053837</v>
+        <v>69.10309845053841</v>
       </c>
       <c r="K15" t="n">
-        <v>118.1082018315524</v>
+        <v>118.1082018315525</v>
       </c>
       <c r="L15" t="n">
-        <v>158.8110528199202</v>
+        <v>158.8110528199203</v>
       </c>
       <c r="M15" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N15" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O15" t="n">
-        <v>174.0232942596144</v>
+        <v>174.0232942596145</v>
       </c>
       <c r="P15" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.36505163662173</v>
+        <v>93.36505163662177</v>
       </c>
       <c r="R15" t="n">
-        <v>45.41216571495388</v>
+        <v>45.4121657149539</v>
       </c>
       <c r="S15" t="n">
         <v>13.58579554979016</v>
       </c>
       <c r="T15" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204761</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6131974997989174</v>
+        <v>0.6131974997989177</v>
       </c>
       <c r="H16" t="n">
-        <v>5.451883225484924</v>
+        <v>5.451883225484926</v>
       </c>
       <c r="I16" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J16" t="n">
-        <v>43.35306323578345</v>
+        <v>43.35306323578347</v>
       </c>
       <c r="K16" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118333</v>
       </c>
       <c r="L16" t="n">
-        <v>91.16574465192269</v>
+        <v>91.16574465192274</v>
       </c>
       <c r="M16" t="n">
-        <v>96.12149535484301</v>
+        <v>96.12149535484305</v>
       </c>
       <c r="N16" t="n">
-        <v>93.83594103741075</v>
+        <v>93.83594103741081</v>
       </c>
       <c r="O16" t="n">
-        <v>86.67267933521428</v>
+        <v>86.67267933521433</v>
       </c>
       <c r="P16" t="n">
-        <v>74.1634503393163</v>
+        <v>74.16345033931634</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.34692882407116</v>
+        <v>51.34692882407119</v>
       </c>
       <c r="R16" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S16" t="n">
-        <v>10.68636006467749</v>
+        <v>10.6863600646775</v>
       </c>
       <c r="T16" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959011</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266827</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.367018638199504</v>
+        <v>1.367018638199505</v>
       </c>
       <c r="H17" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I17" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918645</v>
       </c>
       <c r="J17" t="n">
         <v>116.0239981438853</v>
       </c>
       <c r="K17" t="n">
-        <v>173.8898970988703</v>
+        <v>173.8898970988704</v>
       </c>
       <c r="L17" t="n">
         <v>215.7257937476685</v>
       </c>
       <c r="M17" t="n">
-        <v>240.0365114547489</v>
+        <v>240.036511454749</v>
       </c>
       <c r="N17" t="n">
-        <v>243.9205531605332</v>
+        <v>243.9205531605333</v>
       </c>
       <c r="O17" t="n">
-        <v>230.3272615769369</v>
+        <v>230.327261576937</v>
       </c>
       <c r="P17" t="n">
-        <v>196.5789889463866</v>
+        <v>196.5789889463867</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.6226339658668</v>
+        <v>147.6226339658669</v>
       </c>
       <c r="R17" t="n">
-        <v>85.87098453179968</v>
+        <v>85.87098453179971</v>
       </c>
       <c r="S17" t="n">
-        <v>31.15093721797123</v>
+        <v>31.15093721797124</v>
       </c>
       <c r="T17" t="n">
-        <v>5.984124088718333</v>
+        <v>5.984124088718334</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.1093614910559604</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7314194534479712</v>
+        <v>0.7314194534479714</v>
       </c>
       <c r="H18" t="n">
-        <v>7.063972089879091</v>
+        <v>7.063972089879093</v>
       </c>
       <c r="I18" t="n">
-        <v>25.18264346301129</v>
+        <v>25.1826434630113</v>
       </c>
       <c r="J18" t="n">
-        <v>69.10309845053837</v>
+        <v>69.1030984505384</v>
       </c>
       <c r="K18" t="n">
-        <v>118.1082018315524</v>
+        <v>118.1082018315525</v>
       </c>
       <c r="L18" t="n">
-        <v>158.8110528199202</v>
+        <v>158.8110528199203</v>
       </c>
       <c r="M18" t="n">
         <v>185.3250080074092</v>
@@ -32329,25 +32329,25 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O18" t="n">
-        <v>174.0232942596144</v>
+        <v>174.0232942596145</v>
       </c>
       <c r="P18" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q18" t="n">
-        <v>93.36505163662173</v>
+        <v>93.36505163662176</v>
       </c>
       <c r="R18" t="n">
-        <v>45.41216571495388</v>
+        <v>45.41216571495389</v>
       </c>
       <c r="S18" t="n">
         <v>13.58579554979016</v>
       </c>
       <c r="T18" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204761</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473498</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6131974997989174</v>
+        <v>0.6131974997989176</v>
       </c>
       <c r="H19" t="n">
-        <v>5.451883225484924</v>
+        <v>5.451883225484925</v>
       </c>
       <c r="I19" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J19" t="n">
-        <v>43.35306323578345</v>
+        <v>43.35306323578347</v>
       </c>
       <c r="K19" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118331</v>
       </c>
       <c r="L19" t="n">
-        <v>91.16574465192269</v>
+        <v>91.16574465192272</v>
       </c>
       <c r="M19" t="n">
-        <v>96.12149535484301</v>
+        <v>96.12149535484303</v>
       </c>
       <c r="N19" t="n">
-        <v>93.83594103741075</v>
+        <v>93.83594103741079</v>
       </c>
       <c r="O19" t="n">
-        <v>86.67267933521428</v>
+        <v>86.67267933521431</v>
       </c>
       <c r="P19" t="n">
-        <v>74.1634503393163</v>
+        <v>74.16345033931633</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.34692882407116</v>
+        <v>51.34692882407118</v>
       </c>
       <c r="R19" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S19" t="n">
-        <v>10.68636006467749</v>
+        <v>10.6863600646775</v>
       </c>
       <c r="T19" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959011</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266827</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.367018638199504</v>
+        <v>1.367018638199505</v>
       </c>
       <c r="H20" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I20" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918645</v>
       </c>
       <c r="J20" t="n">
         <v>116.0239981438853</v>
       </c>
       <c r="K20" t="n">
-        <v>173.8898970988703</v>
+        <v>173.8898970988704</v>
       </c>
       <c r="L20" t="n">
         <v>215.7257937476685</v>
       </c>
       <c r="M20" t="n">
-        <v>240.0365114547489</v>
+        <v>240.036511454749</v>
       </c>
       <c r="N20" t="n">
-        <v>243.9205531605332</v>
+        <v>243.9205531605333</v>
       </c>
       <c r="O20" t="n">
-        <v>230.3272615769369</v>
+        <v>230.327261576937</v>
       </c>
       <c r="P20" t="n">
-        <v>196.5789889463866</v>
+        <v>196.5789889463867</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.6226339658668</v>
+        <v>147.6226339658669</v>
       </c>
       <c r="R20" t="n">
-        <v>85.87098453179968</v>
+        <v>85.87098453179971</v>
       </c>
       <c r="S20" t="n">
-        <v>31.15093721797123</v>
+        <v>31.15093721797124</v>
       </c>
       <c r="T20" t="n">
-        <v>5.984124088718333</v>
+        <v>5.984124088718334</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.1093614910559604</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7314194534479712</v>
+        <v>0.7314194534479714</v>
       </c>
       <c r="H21" t="n">
-        <v>7.063972089879091</v>
+        <v>7.063972089879093</v>
       </c>
       <c r="I21" t="n">
-        <v>25.18264346301129</v>
+        <v>25.1826434630113</v>
       </c>
       <c r="J21" t="n">
-        <v>69.10309845053837</v>
+        <v>69.1030984505384</v>
       </c>
       <c r="K21" t="n">
-        <v>118.1082018315524</v>
+        <v>118.1082018315525</v>
       </c>
       <c r="L21" t="n">
-        <v>158.8110528199202</v>
+        <v>158.8110528199203</v>
       </c>
       <c r="M21" t="n">
         <v>185.3250080074092</v>
@@ -32566,25 +32566,25 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O21" t="n">
-        <v>174.0232942596144</v>
+        <v>174.0232942596145</v>
       </c>
       <c r="P21" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q21" t="n">
-        <v>93.36505163662173</v>
+        <v>93.36505163662176</v>
       </c>
       <c r="R21" t="n">
-        <v>45.41216571495388</v>
+        <v>45.41216571495389</v>
       </c>
       <c r="S21" t="n">
         <v>13.58579554979016</v>
       </c>
       <c r="T21" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204761</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473498</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6131974997989174</v>
+        <v>0.6131974997989176</v>
       </c>
       <c r="H22" t="n">
-        <v>5.451883225484924</v>
+        <v>5.451883225484925</v>
       </c>
       <c r="I22" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J22" t="n">
-        <v>43.35306323578345</v>
+        <v>43.35306323578347</v>
       </c>
       <c r="K22" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118331</v>
       </c>
       <c r="L22" t="n">
-        <v>91.16574465192269</v>
+        <v>91.16574465192272</v>
       </c>
       <c r="M22" t="n">
-        <v>96.12149535484301</v>
+        <v>96.12149535484303</v>
       </c>
       <c r="N22" t="n">
-        <v>93.83594103741075</v>
+        <v>93.83594103741079</v>
       </c>
       <c r="O22" t="n">
-        <v>86.67267933521428</v>
+        <v>86.67267933521431</v>
       </c>
       <c r="P22" t="n">
-        <v>74.1634503393163</v>
+        <v>74.16345033931633</v>
       </c>
       <c r="Q22" t="n">
-        <v>51.34692882407116</v>
+        <v>51.34692882407118</v>
       </c>
       <c r="R22" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S22" t="n">
-        <v>10.68636006467749</v>
+        <v>10.6863600646775</v>
       </c>
       <c r="T22" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959011</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266827</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>13.99997962846068</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J44" t="n">
         <v>116.0239981438853</v>
@@ -34380,7 +34380,7 @@
         <v>240.036511454749</v>
       </c>
       <c r="N44" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O44" t="n">
         <v>230.327261576937</v>
@@ -34392,13 +34392,13 @@
         <v>147.6226339658669</v>
       </c>
       <c r="R44" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179972</v>
       </c>
       <c r="S44" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T44" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718336</v>
       </c>
       <c r="U44" t="n">
         <v>0.1093614910559604</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479715</v>
       </c>
       <c r="H45" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879095</v>
       </c>
       <c r="I45" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J45" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053841</v>
       </c>
       <c r="K45" t="n">
         <v>118.1082018315525</v>
@@ -34456,22 +34456,22 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M45" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N45" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O45" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P45" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662177</v>
       </c>
       <c r="R45" t="n">
-        <v>45.41216571495389</v>
+        <v>45.4121657149539</v>
       </c>
       <c r="S45" t="n">
         <v>13.58579554979016</v>
@@ -34480,7 +34480,7 @@
         <v>2.948133674204761</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989177</v>
       </c>
       <c r="H46" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484926</v>
       </c>
       <c r="I46" t="n">
         <v>18.44052117577109</v>
@@ -34529,28 +34529,28 @@
         <v>43.35306323578347</v>
       </c>
       <c r="K46" t="n">
-        <v>71.24240043118331</v>
+        <v>71.24240043118333</v>
       </c>
       <c r="L46" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192274</v>
       </c>
       <c r="M46" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484305</v>
       </c>
       <c r="N46" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741081</v>
       </c>
       <c r="O46" t="n">
-        <v>86.67267933521431</v>
+        <v>86.67267933521433</v>
       </c>
       <c r="P46" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931634</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407119</v>
       </c>
       <c r="R46" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S46" t="n">
         <v>10.6863600646775</v>
@@ -34704,7 +34704,7 @@
         <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
-        <v>204.4954085367308</v>
+        <v>204.4954085367307</v>
       </c>
       <c r="M2" t="n">
         <v>242.9064974359549</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>250.5834388302202</v>
+        <v>36.7853831762164</v>
       </c>
       <c r="M3" t="n">
-        <v>8.025953778143265</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
         <v>274.2838073416025</v>
@@ -34795,7 +34795,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>81.99814951141209</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>258.6093926083634</v>
+        <v>117.9609491152816</v>
       </c>
       <c r="N6" t="n">
         <v>274.2838073416025</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>36.7853831762164</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
         <v>274.2838073416025</v>
@@ -35269,10 +35269,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>22.61573905664482</v>
+        <v>22.61573905664497</v>
       </c>
       <c r="K11" t="n">
-        <v>157.4068401502462</v>
+        <v>157.4068401502464</v>
       </c>
       <c r="L11" t="n">
-        <v>247.7711223775113</v>
+        <v>247.7711223775115</v>
       </c>
       <c r="M11" t="n">
-        <v>291.0590674211896</v>
+        <v>291.05906742119</v>
       </c>
       <c r="N11" t="n">
-        <v>280.0947932913452</v>
+        <v>280.0947932913455</v>
       </c>
       <c r="O11" t="n">
-        <v>217.8912764459336</v>
+        <v>217.8912764459339</v>
       </c>
       <c r="P11" t="n">
-        <v>148.6532510628466</v>
+        <v>148.6532510628468</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.67340919245515</v>
+        <v>33.67340919245532</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>164.3415617610343</v>
       </c>
       <c r="L12" t="n">
-        <v>282.4417602538826</v>
+        <v>282.4417602538828</v>
       </c>
       <c r="M12" t="n">
-        <v>353.3606744918854</v>
+        <v>192.7983893355131</v>
       </c>
       <c r="N12" t="n">
-        <v>353.3606744918854</v>
+        <v>353.3606744918859</v>
       </c>
       <c r="O12" t="n">
-        <v>305.4954497223316</v>
+        <v>305.4954497223318</v>
       </c>
       <c r="P12" t="n">
-        <v>104.5069400381876</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>100.7276634335266</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>55.74945175560885</v>
+        <v>55.74945175560896</v>
       </c>
       <c r="M13" t="n">
-        <v>69.4798788348171</v>
+        <v>69.47987883481723</v>
       </c>
       <c r="N13" t="n">
-        <v>73.02099644446244</v>
+        <v>73.02099644446255</v>
       </c>
       <c r="O13" t="n">
-        <v>51.9551973350689</v>
+        <v>51.95519733506901</v>
       </c>
       <c r="P13" t="n">
-        <v>20.99959494441458</v>
+        <v>20.99959494441467</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L14" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M14" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N14" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423207</v>
       </c>
       <c r="O14" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P14" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.6821766245794</v>
+        <v>151.6821766245795</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.57108920456352</v>
+        <v>76.57108920456356</v>
       </c>
       <c r="K15" t="n">
-        <v>111.571097564307</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L15" t="n">
-        <v>409.3944916501404</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M15" t="n">
-        <v>531.0775912334412</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N15" t="n">
-        <v>560.6879095536389</v>
+        <v>560.687909553639</v>
       </c>
       <c r="O15" t="n">
-        <v>444.6087679740798</v>
+        <v>444.6087679740799</v>
       </c>
       <c r="P15" t="n">
-        <v>340.2452679645353</v>
+        <v>340.2452679645354</v>
       </c>
       <c r="Q15" t="n">
-        <v>175.3632011480338</v>
+        <v>28.17765338770664</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334998</v>
       </c>
       <c r="L16" t="n">
         <v>128.626874880932</v>
@@ -35816,13 +35816,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N16" t="n">
-        <v>148.0329607020486</v>
+        <v>148.0329607020487</v>
       </c>
       <c r="O16" t="n">
-        <v>121.2408873651853</v>
+        <v>121.2408873651854</v>
       </c>
       <c r="P16" t="n">
-        <v>80.28547223800014</v>
+        <v>80.28547223800018</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35889,13 +35889,13 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L17" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M17" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N17" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423207</v>
       </c>
       <c r="O17" t="n">
         <v>402.0136939540475</v>
@@ -35904,7 +35904,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.6821766245794</v>
+        <v>151.6821766245795</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>258.7566453246342</v>
       </c>
       <c r="L18" t="n">
-        <v>409.3944916501404</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M18" t="n">
-        <v>531.0775912334412</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N18" t="n">
         <v>560.6879095536389</v>
       </c>
       <c r="O18" t="n">
-        <v>444.6087679740798</v>
+        <v>444.6087679740799</v>
       </c>
       <c r="P18" t="n">
-        <v>340.2452679645353</v>
+        <v>340.2452679645354</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.7487425922706</v>
+        <v>104.7487425922701</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334996</v>
       </c>
       <c r="L19" t="n">
         <v>128.626874880932</v>
@@ -36053,13 +36053,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N19" t="n">
-        <v>148.0329607020486</v>
+        <v>148.0329607020487</v>
       </c>
       <c r="O19" t="n">
-        <v>121.2408873651853</v>
+        <v>121.2408873651854</v>
       </c>
       <c r="P19" t="n">
-        <v>80.28547223800014</v>
+        <v>80.28547223800017</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L20" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M20" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N20" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423207</v>
       </c>
       <c r="O20" t="n">
         <v>402.0136939540475</v>
@@ -36141,7 +36141,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.6821766245794</v>
+        <v>151.6821766245795</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.1421867688705</v>
+        <v>258.7566453246342</v>
       </c>
       <c r="L21" t="n">
-        <v>409.3944916501404</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M21" t="n">
-        <v>531.0775912334412</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N21" t="n">
         <v>560.6879095536389</v>
       </c>
       <c r="O21" t="n">
-        <v>444.6087679740798</v>
+        <v>444.6087679740799</v>
       </c>
       <c r="P21" t="n">
-        <v>340.2452679645353</v>
+        <v>340.2452679645354</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.3632011480338</v>
+        <v>104.7487425922701</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334996</v>
       </c>
       <c r="L22" t="n">
         <v>128.626874880932</v>
@@ -36290,13 +36290,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N22" t="n">
-        <v>148.0329607020486</v>
+        <v>148.0329607020487</v>
       </c>
       <c r="O22" t="n">
-        <v>121.2408873651853</v>
+        <v>121.2408873651854</v>
       </c>
       <c r="P22" t="n">
-        <v>80.28547223800014</v>
+        <v>80.28547223800017</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N24" t="n">
-        <v>413.5023617933115</v>
+        <v>413.5023617933119</v>
       </c>
       <c r="O24" t="n">
         <v>444.6087679740799</v>
@@ -36597,7 +36597,7 @@
         <v>115.3647210093229</v>
       </c>
       <c r="K26" t="n">
-        <v>296.4135214040257</v>
+        <v>296.4135214040258</v>
       </c>
       <c r="L26" t="n">
         <v>420.2212022843994</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.57108920456355</v>
       </c>
       <c r="K27" t="n">
         <v>258.7566453246342</v>
@@ -36694,7 +36694,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.7487425922701</v>
+        <v>28.17765338770664</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>258.7566453246342</v>
+        <v>188.1421867688708</v>
       </c>
       <c r="L30" t="n">
         <v>409.3944916501405</v>
@@ -36931,7 +36931,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.7487425922701</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>420.2212022843994</v>
       </c>
       <c r="M32" t="n">
-        <v>482.9430088907039</v>
+        <v>482.943008890704</v>
       </c>
       <c r="N32" t="n">
         <v>475.0836175423207</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>115.3647210093226</v>
+        <v>115.3647210093229</v>
       </c>
       <c r="K35" t="n">
         <v>296.4135214040257</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.57108920456355</v>
       </c>
       <c r="K36" t="n">
-        <v>258.7566453246342</v>
+        <v>111.5710975643072</v>
       </c>
       <c r="L36" t="n">
         <v>409.3944916501405</v>
@@ -37405,7 +37405,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.7487425922701</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M39" t="n">
-        <v>531.0775912334414</v>
+        <v>383.8920434731144</v>
       </c>
       <c r="N39" t="n">
         <v>560.6879095536389</v>
@@ -37642,7 +37642,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.17765338770664</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>420.2212022843994</v>
       </c>
       <c r="M41" t="n">
-        <v>482.9430088907037</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N41" t="n">
         <v>475.0836175423207</v>
@@ -37800,7 +37800,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.6821766245795</v>
+        <v>151.6821766245793</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.57108920456355</v>
       </c>
       <c r="K42" t="n">
         <v>258.7566453246342</v>
@@ -37876,10 +37876,10 @@
         <v>444.6087679740799</v>
       </c>
       <c r="P42" t="n">
-        <v>340.2452679645354</v>
+        <v>193.0597202042082</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.7487425922701</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>115.364721009323</v>
+        <v>115.3647210093229</v>
       </c>
       <c r="K44" t="n">
         <v>296.4135214040257</v>
@@ -38031,10 +38031,10 @@
         <v>475.0836175423207</v>
       </c>
       <c r="O44" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P44" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q44" t="n">
         <v>151.6821766245795</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.57108920456355</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>258.7566453246342</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L45" t="n">
         <v>409.3944916501405</v>
@@ -38107,16 +38107,16 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N45" t="n">
-        <v>560.6879095536389</v>
+        <v>560.687909553639</v>
       </c>
       <c r="O45" t="n">
         <v>444.6087679740799</v>
       </c>
       <c r="P45" t="n">
-        <v>193.0597202042082</v>
+        <v>340.2452679645354</v>
       </c>
       <c r="Q45" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922701</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334998</v>
       </c>
       <c r="L46" t="n">
         <v>128.626874880932</v>
@@ -38192,7 +38192,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P46" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800018</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
